--- a/dev.bitstationary/-z/-z.xlsx
+++ b/dev.bitstationary/-z/-z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="95">
   <si>
     <t>-</t>
   </si>
@@ -50,9 +50,15 @@
     <t>material</t>
   </si>
   <si>
+    <t>Essence</t>
+  </si>
+  <si>
     <t>alternative</t>
   </si>
   <si>
+    <t>Column</t>
+  </si>
+  <si>
     <t>redirection</t>
   </si>
   <si>
@@ -104,10 +110,19 @@
     <t>anniversary</t>
   </si>
   <si>
+    <t>Supply</t>
+  </si>
+  <si>
     <t>crystalline</t>
   </si>
   <si>
+    <t>Demand</t>
+  </si>
+  <si>
     <t>shield</t>
+  </si>
+  <si>
+    <t>Essay</t>
   </si>
   <si>
     <t>identical</t>
@@ -953,7 +968,9 @@
         <v>2</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>0</v>
       </c>
@@ -971,13 +988,15 @@
         <v>0</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="17" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>2</v>
@@ -1019,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
@@ -1043,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>2</v>
@@ -1067,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
@@ -1091,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>2</v>
@@ -1115,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
@@ -1139,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>2</v>
@@ -1163,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>2</v>
@@ -1187,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>2</v>
@@ -1211,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>2</v>
@@ -1235,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
@@ -1259,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>2</v>
@@ -1283,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>2</v>
@@ -1307,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>2</v>
@@ -1331,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>2</v>
@@ -1355,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>2</v>
@@ -1379,13 +1398,15 @@
         <v>0</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="G25" s="17" t="s">
         <v>0</v>
       </c>
@@ -1403,13 +1424,15 @@
         <v>0</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="G26" s="17" t="s">
         <v>0</v>
       </c>
@@ -1427,13 +1450,15 @@
         <v>0</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
+      <c r="F27" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
       </c>
@@ -1451,14 +1476,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
@@ -1477,14 +1502,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>0</v>
@@ -1532,14 +1557,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>0</v>
@@ -1570,14 +1595,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>0</v>
@@ -1596,14 +1621,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>0</v>
@@ -1622,14 +1647,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>0</v>
@@ -1648,14 +1673,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>0</v>
@@ -1674,14 +1699,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>0</v>
@@ -1700,14 +1725,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>0</v>
@@ -1726,14 +1751,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>0</v>
@@ -1752,14 +1777,14 @@
         <v>0</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -1778,14 +1803,14 @@
         <v>0</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>0</v>
@@ -1804,14 +1829,14 @@
         <v>0</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>0</v>
@@ -1830,14 +1855,14 @@
         <v>0</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>0</v>
@@ -1856,14 +1881,14 @@
         <v>0</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>0</v>
@@ -1882,14 +1907,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>0</v>
@@ -1908,14 +1933,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>0</v>
@@ -1934,14 +1959,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>0</v>
@@ -1960,14 +1985,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>0</v>
@@ -1986,14 +2011,14 @@
         <v>0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>0</v>
@@ -2012,14 +2037,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>0</v>
@@ -2038,14 +2063,14 @@
         <v>0</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>0</v>
@@ -2064,14 +2089,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>0</v>
@@ -2090,14 +2115,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>0</v>
@@ -2116,14 +2141,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>0</v>
@@ -2142,14 +2167,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>0</v>
@@ -2168,14 +2193,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
@@ -2194,14 +2219,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
@@ -2220,14 +2245,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>0</v>

--- a/dev.bitstationary/-z/-z.xlsx
+++ b/dev.bitstationary/-z/-z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="111">
   <si>
     <t>-</t>
   </si>
@@ -62,49 +62,97 @@
     <t>redirection</t>
   </si>
   <si>
+    <t>Compose</t>
+  </si>
+  <si>
     <t>contextual</t>
   </si>
   <si>
+    <t>Support</t>
+  </si>
+  <si>
     <t>volumetric</t>
   </si>
   <si>
+    <t>Fleet</t>
+  </si>
+  <si>
     <t>beneficiary</t>
   </si>
   <si>
+    <t>Interim</t>
+  </si>
+  <si>
     <t>physics</t>
   </si>
   <si>
+    <t>Significance</t>
+  </si>
+  <si>
     <t>supposedly</t>
   </si>
   <si>
+    <t>Necessary</t>
+  </si>
+  <si>
     <t>stationary</t>
   </si>
   <si>
+    <t>Complement</t>
+  </si>
+  <si>
     <t>serialisation</t>
   </si>
   <si>
+    <t>Concept</t>
+  </si>
+  <si>
     <t>deserialisation</t>
   </si>
   <si>
+    <t>Artwork</t>
+  </si>
+  <si>
     <t>trapezium</t>
   </si>
   <si>
+    <t>Lawn</t>
+  </si>
+  <si>
     <t>exhibit</t>
   </si>
   <si>
+    <t>Observatory</t>
+  </si>
+  <si>
     <t>occupancy</t>
   </si>
   <si>
+    <t>Training</t>
+  </si>
+  <si>
     <t>transpose</t>
   </si>
   <si>
+    <t>Guideline</t>
+  </si>
+  <si>
     <t>independent</t>
   </si>
   <si>
+    <t>Session</t>
+  </si>
+  <si>
     <t>population</t>
   </si>
   <si>
+    <t>Desktop</t>
+  </si>
+  <si>
     <t>obstruction</t>
+  </si>
+  <si>
+    <t>Market</t>
   </si>
   <si>
     <t>anniversary</t>
@@ -515,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -578,12 +626,6 @@
     </xf>
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1020,7 +1062,9 @@
         <v>2</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="17" t="s">
         <v>0</v>
       </c>
@@ -1038,13 +1082,15 @@
         <v>0</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="17" t="s">
         <v>0</v>
       </c>
@@ -1062,13 +1108,15 @@
         <v>0</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
       </c>
@@ -1086,13 +1134,15 @@
         <v>0</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
@@ -1110,13 +1160,15 @@
         <v>0</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
@@ -1134,13 +1186,15 @@
         <v>0</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
@@ -1158,13 +1212,15 @@
         <v>0</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>0</v>
       </c>
@@ -1182,13 +1238,15 @@
         <v>0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
@@ -1206,13 +1264,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1230,13 +1290,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="G18" s="17" t="s">
         <v>0</v>
       </c>
@@ -1254,13 +1316,15 @@
         <v>0</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="G19" s="17" t="s">
         <v>0</v>
       </c>
@@ -1278,13 +1342,15 @@
         <v>0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="G20" s="17" t="s">
         <v>0</v>
       </c>
@@ -1302,13 +1368,15 @@
         <v>0</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G21" s="17" t="s">
         <v>0</v>
       </c>
@@ -1326,13 +1394,15 @@
         <v>0</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
@@ -1350,13 +1420,15 @@
         <v>0</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1374,13 +1446,15 @@
         <v>0</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="17" t="s">
         <v>0</v>
       </c>
@@ -1398,14 +1472,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>0</v>
@@ -1424,14 +1498,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>0</v>
@@ -1450,14 +1524,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
@@ -1476,14 +1550,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
@@ -1498,26 +1572,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="B29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27">
         <v>26.0</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="28" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -1557,14 +1631,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>0</v>
@@ -1595,14 +1669,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>0</v>
@@ -1621,14 +1695,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>0</v>
@@ -1647,14 +1721,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>0</v>
@@ -1673,14 +1747,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>0</v>
@@ -1699,14 +1773,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>0</v>
@@ -1725,14 +1799,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>0</v>
@@ -1751,14 +1825,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="16" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>0</v>
@@ -1777,14 +1851,14 @@
         <v>0</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>0</v>
@@ -1803,14 +1877,14 @@
         <v>0</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>0</v>
@@ -1829,14 +1903,14 @@
         <v>0</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>0</v>
@@ -1855,14 +1929,14 @@
         <v>0</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>0</v>
@@ -1881,14 +1955,14 @@
         <v>0</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="16" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>0</v>
@@ -1907,14 +1981,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>0</v>
@@ -1933,14 +2007,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>0</v>
@@ -1959,14 +2033,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>0</v>
@@ -1985,14 +2059,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>0</v>
@@ -2011,14 +2085,14 @@
         <v>0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="16" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>0</v>
@@ -2037,14 +2111,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>0</v>
@@ -2063,14 +2137,14 @@
         <v>0</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="16" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>0</v>
@@ -2089,14 +2163,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="16" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>0</v>
@@ -2115,14 +2189,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="16" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>0</v>
@@ -2141,14 +2215,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>0</v>
@@ -2167,14 +2241,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>0</v>
@@ -2193,14 +2267,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>0</v>
@@ -2219,14 +2293,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>0</v>
@@ -2241,26 +2315,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="B29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27">
         <v>26.0</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="28" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
